--- a/biology/Origine et évolution du vivant/Espèce_relique/Espèce_relique.xlsx
+++ b/biology/Origine et évolution du vivant/Espèce_relique/Espèce_relique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ce_relique</t>
+          <t>Espèce_relique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie, une espèce relique est une espèce dont l'aire de répartition est très limitée en comparaison de sa dimension dans des temps plus anciens, ou qui témoigne d'un taxon plus diversifié et répandu dans le passé lointain.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ce_relique</t>
+          <t>Espèce_relique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète relique vient du latin reliquiae, les restes, les survivants[1], du verbe relinquere, laisser derrière soi[2].
-Une espèce relique est une espèce presque éteinte, d'origine ancienne, qui ne se rencontre que dans une aire limitée (George 1970)[3]. Il s'agit d'une espèce endémique d'une petite région, seul reste d'une aire de répartition beaucoup plus vaste de l'espèce, ou d'un groupe d'espèces proches, dans des temps plus anciens.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète relique vient du latin reliquiae, les restes, les survivants, du verbe relinquere, laisser derrière soi.
+Une espèce relique est une espèce presque éteinte, d'origine ancienne, qui ne se rencontre que dans une aire limitée (George 1970). Il s'agit d'une espèce endémique d'une petite région, seul reste d'une aire de répartition beaucoup plus vaste de l'espèce, ou d'un groupe d'espèces proches, dans des temps plus anciens.
 On parle plutôt de « population relique » lorsque ce n'est pas l'espèce en elle-même, mais seulement une population de cette espèce qui se retrouve isolée des zones auxquelles cette espèce est rattachée, généralement pour des raisons de modifications climatiques.
-Il peut éventuellement s'agir d'une espèce présentant des caractères archaïques et qui se trouve comme isolée dans la classification des êtres vivants (Thinès-Lemp. 1975)[4]. Dans ce cas, le terme d'espèce relique est considéré préférable à l'appellation de « fossile vivant » créée par Darwin, car ces animaux ont considérablement évolué depuis les espèces fossiles auxquelles ils ressemblent superficiellement[5]. On préfère aussi utiliser dans ce cas les termes d'« espèce panchronique » ou de « taxon relique ».
+Il peut éventuellement s'agir d'une espèce présentant des caractères archaïques et qui se trouve comme isolée dans la classification des êtres vivants (Thinès-Lemp. 1975). Dans ce cas, le terme d'espèce relique est considéré préférable à l'appellation de « fossile vivant » créée par Darwin, car ces animaux ont considérablement évolué depuis les espèces fossiles auxquelles ils ressemblent superficiellement. On préfère aussi utiliser dans ce cas les termes d'« espèce panchronique » ou de « taxon relique ».
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ce_relique</t>
+          <t>Espèce_relique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Cas de la flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les espèces endémiques ayant une aire de répartition restreinte, certaines sont des espèces reliques, car leur aire de répartition passée a été beaucoup plus étendue. Cette rétraction  résulte de divers changements du climat, en particulier les intenses oscillations climatiques du Pléistocène. Ces espèces reliques, particulièrement nombreuses chez les végétaux, participent pour une bonne partie de l'endémisme actuel. 
 Pour les régions tempérées par exemple, plusieurs cas de figure sont possibles :
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ce_relique</t>
+          <t>Espèce_relique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Cas de la faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les animaux, on peut trouver des espèces reliques dans tous les groupes, mais elles sont plus nombreuses chez les groupes d'animaux qui ont de faibles capacités de déplacement et de recolonisation. 
 Chez les Amphibiens, un certain nombre d'Urodèles endémiques d'Europe du Sud par exemple, sont pour la plupart des espèces reliques, derniers représentants de la grande diversité d'urodèles qui peuplaient les forêts tempérées européennes durant l'ère Tertiaire. Les Urodèles ont été décimés par les glaciations du Pléistocène. Parmi les espèces qui ont survécu, un bon nombre sont restées confinées dans des aires restreintes et n'ont pas eu le temps de recoloniser l'Europe durant l'Holocène. Ces espèces ne sont pas issues d'une évolution locale, mais sont bien les reliques de clades d'Urodèles qui furent beaucoup plus répandus et diversifiés dans un passé lointain. En effet, beaucoup de ces espèces sont très divergentes phylogénétiquement et ont leurs plus proches parents actuels souvent à de grandes distances géographiques, parfois sur d'autres continents. On peut citer les deux Salamandrines à lunettes d'Italie qui appartiennent à la branche la plus séparée génétiquement dans la famille des Salamandridae, le Chioglosse portugais isolé dans le nord-ouest de la péninsule Ibérique et dont le plus proche parent actuel est Mertensiella caucasica qui est lui aussi isolé, mais pas plus près que dans le Caucase, le Pleurodèle de Waltl dont les parents les plus proches sont les Tylototriton et les Echinotriton d'Asie orientale. Chez les Proteidae, il y a le célèbre Protée anguillard dans les Balkans, alors que les seuls autres représentants de la famille sont les Nectures d'Amérique du Nord, preuve que la famille a été répandue dans tout l'hémisphère Nord. On peut dire la même chose pour les Spélerpès européens, qui ont des aires de distribution extrêmement petites, dans les Alpes ligures, en Sardaigne et en Italie, alors qu'on ne trouve d'autres représentants de leur famille, les Plethodontidae, en Amérique et en Corée.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ce_relique</t>
+          <t>Espèce_relique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,23 +635,141 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Faune
-Mammifères
-le Desman des Pyrénées (Galemys pyrenaicus)
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>le Desman des Pyrénées (Galemys pyrenaicus)
 la Musaraigne de Miller (Neomys anomalus)
 le Lynx pardelle (Lynx pardinus)
-le Phoque moine de Méditerranée (Monachus monachus)
-Amphibiens
-le Protée anguillard (Proteus anguinus)
+le Phoque moine de Méditerranée (Monachus monachus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Espèce_relique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esp%C3%A8ce_relique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>le Protée anguillard (Proteus anguinus)
 les Salamandrines à lunettes (Salamandrina)
 le Chioglosse portugais (Chioglossa lusitanica)
 le Pleurodèle de Waltl (Pleurodeles waltl)
-les Spélerpès (Speleomantes et Atylodes)
-Autres
-le Grand-verdier à ailes d'or
-le rotifère Rhinoglena kutikovae
-Flore
-le Marronnier d'Europe (Aesculus hippocastanum)
+les Spélerpès (Speleomantes et Atylodes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Espèce_relique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esp%C3%A8ce_relique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>le Grand-verdier à ailes d'or
+le rotifère Rhinoglena kutikovae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Espèce_relique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esp%C3%A8ce_relique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>le Marronnier d'Europe (Aesculus hippocastanum)
 le Copalme d'Orient (Liquidambar orientalis)
 le Ptérocaryer du Caucase (Pterocarya fraxinifolia)
 les Zelkovas en Europe : Zelkova carpinifolia dans le Caucase, Zelkova abelicea en Crète et Zelkova sicula en Sicile.
